--- a/output.xlsx
+++ b/output.xlsx
@@ -535,424 +535,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://respon.ai/home/index</t>
+          <t>https://respon.ai/home/terms</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business
-Respon.ai
-Home
-Integration
-Blog
-Company
-Start for Free
-Log In
-Sign Up
-English
-By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
-Cookie Policy
-ACCEPT
-WhatsApp
-AI-Powered
-Social Media Management Maximized Efficiency
-Use a unified intelligent social management platform to make marketing simple and efficient
-START FOR FREE
-Work smarter and save 50% of your time
-Integrate all your social media feeds
-It is amazing that all social media messages are centralized in one platform to build a unified customer profile for you.
-We support seamless connection between web pages and mobile apps, helping you interact with target customers anytime and anywhere.
-KNOW MORE CHANNELS
-AI customer service automation marketing
-Boost social media engagement, marketing, and sales with AI.
-Our social media management can understand intent, detects emotion, and analyze needs across multiple languages. Automate 80% of inquiries while ensuring smooth handover of key conversations—reducing workload while maintaining quality service.
-Intelligent Decision Making
-Set up intelligent decision-making and diversion processing, and automatically transfer risk conversations and key users to manual work, thereby reducing the pressure on manual customer service while ensuring service quality.
-Quickly integrate into the local market
-As an omnichannel messaging platform, Respon.ai supports cross-time zone, 20+ language real-time translation, helping you quickly adapt to the cultural differences of different markets. By establishing a standardized template library + localized script library, you have a greater chance of converting global public domain users into high-repurchase user assets.
-Team collaboration security support
-Each account is equipped with a separate 'ID card' to provide safe and stable technical support. Through task assignment and progress tracking in our social media inbox, your team can collaborate efficiently to avoid repeated contacts and missed orders. All customer communications are automatically archived, so no matter who contacts the same customer next time, there is no need to repeatedly ask 'What do you need?'
-Make every connection a starting point for growth
-Channel Integration
-Facebook
-Messenger
-TikTok
-Instagram
-About Us
-Privacy Policy
-Terms of Service
-Contact Us
-service@respon.ai
-marketing@respon.ai
-© 2025 All Rights Reserved. FELICIS TECHNOLOGY LTD. Beckenham, London, United Kingdom</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>//s.yezgea02.com/static/1742454387135/logo160.png
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner1.076f67bb.webp?w=3840&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner2.51307496.webp?w=1200&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner3.288f103a.webp?w=1200&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBannerTest4.e6c6f5ae.webp?w=1200&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner5.b835a526.webp?w=1200&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner6.2a0c2bab.svg?w=828&amp;q=75</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Respon.ai-Unified Social Media Inbox Management Tool</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://respon.ai/home/channel</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Respon.ai-Unified Social Media Inbox Management Tool
-Respon.ai
-Home
-Integration
-Blog
-Company
-Start for Free
-Log In
-Sign Up
-English
-By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
-Cookie Policy
-ACCEPT
-WhatsApp
-Integrate multiple social media channels for cross-platform unified management
-START FOR FREE
-Respon.ai integrates with social media channels like WhatsApp, Facebook Messenger, Facebook comments, Instagram, and TikTok. Sales, operations, and customer service teams can collaboratively manage customers from various channels on the omnichannel chat platform. They can also share materials and synchronize strategies across platforms, significantly enhancing response times and operational efficiency.
-Currently integrates with the following social media channels
-Integrate WhatsApp into Respon.ai to boost customer service efficiency through multi-endpoint collaboration, automated strategies, and aggregated chat, enabling personalized interaction.
-Facebook Messenger
-Integrate multiple Pages' Messenger messages, ensuring no customer inquiry goes unanswered. Capture every opportunity, and turn your social media into a powerful growth engine!
-Facebook
-All-in-one social media engagement tool with automated, AI, and multilingual replies—24/7 rapid service to boost your global brand and streamline operations.
-Instagram
-Integrated with Instagram Graph API for seamless content publishing, customer engagement management, and analytics—empowering brands with full control and optimized interactions.
-TikTok
-Manage multiple TikTok accounts effortlessly and integrate DMs and comments. Engage instantly, boost fan loyalty, and scale your brand's influence like never before!
-Please wait
-These channels will be coming soon…
-Respon.ai：Redefine Your Private Ecosystem
-Boundless Engagement, Omnichannel Growth
-Make every connection a starting point for growth
-Channel Integration
-Messenger
-About Us
-Privacy Policy
-Terms of Service
-Contact Us
-service@respon.ai
-marketing@respon.ai
-© 2025 All Rights Reserved. FELICIS TECHNOLOGY LTD. Beckenham, London, United Kingdom</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>//s.yezgea02.com/static/1742454387135/logo160.png
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/channelBanner1.136571a2.webp?w=3840&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/whatsapp.252e02d0.svg?w=256&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/Messenger.e23aecf9.svg?w=256&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/Facebook.f2e5c91c.svg?w=256&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/ins.34a48ffb.svg?w=256&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/tk.ba34624e.svg?w=256&amp;q=75</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mission in Respon.ai-Omnichannel Messaging Tool for Social Media</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://respon.ai/home/company</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mission in Respon.ai-Omnichannel Messaging Tool for Social Media
-Respon.ai
-Home
-Integration
-Blog
-Company
-Start for Free
-Log In
-Sign Up
-English
-By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
-Cookie Policy
-ACCEPT
-WhatsApp
-Our Mission
-Build an Al-powered omnichannel private ecosystem operation management tool to make communication between businesses and customers more convenient, efficient, and intelligent.
-START FOR FREE
-Discover what Respon.ai can do for your Business
-Our team has more than 8 years of experience in R&amp;D of private domain operation tools and more than 3 years of practical experience in private domain operation. We are well versed in the gameplay and operation procedures of domestic private domain operations and have a mature private domain operation methodology.
-We are committed to simplifying workflows in marketing, sales support, and customer service to help companies easily maintain customer relationships, facilitate efficient customer communications, and significantly increase paid conversions.
-Respon.ai is an AI-enabled omnichannel messaging platform that supports integration with many social media platforms such as WhatsApp, Facebook, Instagram, TikTok, etc.
-As a professional social inbox tool provider, we hope to empower overseas businesses through our own advantages and help companies explore new ideas for localized private domain operations.
-Why Respon.ai ?
-Trusted by enterprises worldwide
-Spanning e-commerce, SaaS, and cross-border services
-24/7 Security Safeguard
-Advanced Encryption, Real-time Risk Early-Warning
-Agile adaptation to local demands
-Supports multi-time zones, multi-languages, and multi-platform customer service
-Respon.ai：Redefine Your Private Ecosystem
-Boundless Engagement, Omnichannel Growth
-Make every connection a starting point for growth
-Channel Integration
-Facebook
-Messenger
-TikTok
-Instagram
-About Us
-Privacy Policy
-Terms of Service
-Contact Us
-service@respon.ai
-marketing@respon.ai
-© 2025 All Rights Reserved. FELICIS TECHNOLOGY LTD. Beckenham, London, United Kingdom</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>//s.yezgea02.com/static/1742454387135/logo160.png
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/companyBanner1.04f579ef.webp?w=3840&amp;q=75</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Unified Social Media Inbox Tool for Free Trial | Resopn.ai</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://respon.ai/home/pricing</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Unified Social Media Inbox Tool for Free Trial | Resopn.ai
-Respon.ai
-Home
-Integration
-Blog
-Company
-Start for Free
-Log In
-Sign Up
-English
-By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
-Cookie Policy
-ACCEPT
-WhatsApp
-Early Access Shape the Future Together
-Free to experience, built with your feedback!
-Your input will make Respon.ai better.
-Join the trial program &amp; become an early Co-creator.
-START FOR FREE
-Why a Free Trial Now?
-We offer you
-free
-access to
-5 social media accounts
-and
-5 cloud device accounts
-on Respon.ai.
-As a smart social media inbox tool, Respon.ai is currently in a phase of rapid growth. We believe in its potential, but we also know that user voices are the ultimate source of continuous improvement.
-We want to invite you to be among our first and most important trial users, giving you free access to our core features.
-Every experience you have, every suggestion you make, will directly help us identify issues, refine workflows, and ensure Respon.ai truly meets your real-world needs.
-What You Get By Joining the Trial?
-Completely Free Access
-Enjoy full access to the powerful features of Respon.ai at no cost during the trial period.
-Influence Product Direction
-Your valuable feedback will directly impact our product roadmap and feature prioritization. You have the chance to help shape the SaaS tool you've always wanted!
-Priority Access to Future Benefits
-As an early trial user, you might receive exclusive discounts or special benefits when we officially launch commercial plans.
-Direct Communication with the Team
-We will set up dedicated channels for you to easily communicate with our product and technical teams anytime.
-What Kind of Feedback Are We Looking For?
-We promise that all collected feedback will be used solely for
-product optimization. Your personal information will be strictly protected.
-Feature Usage Experience:
-What features did you find useful? What was difficult to use?
-Issues / Bugs Encountered:
-Did you run into any errors or unexpected behavior during use?
-Improvement Suggestions:
-What features would you add, or how would you improve existing ones, to better solve your pain points?
-Your Needs:
-What are the specific challenges in your work or business that (Your SaaS Tool Name) currently doesn't address?
-Start Your Respon.ai Journey
-Make every connection a starting point for growth
-Channel Integration
-Facebook
-Messenger
-TikTok
-Instagram
-About Us
-Privacy Policy
-Terms of Service
-Contact Us
-service@respon.ai
-marketing@respon.ai
-© 2025 All Rights Reserved. FELICIS TECHNOLOGY LTD. Beckenham, London, United Kingdom</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>//s.yezgea02.com/static/1742454387135/logo160.png
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/speakIcon.8801ff7f.svg?w=256&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/freeIcon.7ddd9b40.svg?w=256&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/recommendationsIcon.bcb20dc2.svg?w=256&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/feedbackImg.0df29226.webp?w=3840&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/bottomweb@2x.ffdcc63e.webp?w=3840&amp;q=75
-//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/bottommobile@2x.42e9dd14.webp?w=3840&amp;q=75</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://respon.ai/home/privacy</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business
-Respon.ai
-Home
-Integration
-Blog
-Company
-Start for Free
-Log In
-Sign Up
-English
-By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
-Cookie Policy
-ACCEPT
-WhatsApp
-Privacy Policy
-Introduction
-Respon.ai is owned by FELICIS TECHNOLOGY LTD. We are committed to protecting and respecting your privacy.
-We have aligned our company data protection compliance programme to the core requirements of the General Data Protection Regulation, as this is considered by Respon.ai as the global ‘gold standard’ of data protection regulation.
-This Privacy Notice (“Notice”) explains how we treat personal information processed on our bespoke platform, Respon.ai, what we collect when you visit our website, contact us by email, phone or through one of our social channels, or through other communications. It also explains what information we collect automatically when you visit our website and the information we collect when you use our services.
-Please be aware that we have separate privacy notices for employees and job applicants, available from Respon.ai Human Resources. Please also be aware that our clients’ have their own privacy notices on their respective websites.
-Our work is predominantly as a Processor for our clients; however, Respon.ai is the Controller for our employee data and for the contact details of our clients. As such, in line with the requirements of Data Security Law, we solemnly commit to not disclosing any personal information.
-As an information-led business, we place great importance on ensuring the quality, confidentiality, integrity and availability of the data we hold and in meeting our data protection obligations when processing personal data. We are committed to protecting the security of your personal data. We use a variety of technical and organisational measures to help protect your personal data from unauthorised access, use or disclosure.
-We update this Notice from time to time in response to changes in applicable laws and regulations, to our processing practices and to the products and services we offer. Please review this Notice periodically to check for updates.
-What information do we process?
-Information provided by our clients
-The categories of personal data processed by us varies between clients, but may include:
-Name
-Job Title
-Business address
-Business email address
-Business telephone number(s)
-Business financial information
-Location data
-Personal data processed on our SleekFlow platform, determined by the Controller
-Information provided to us via our website
-We process all information you provide to us via our website (“our site”), by telephone, email or otherwise. This includes information you provide when you register for our services as a client, enquire about a product or service, use one of the social media functions linked to our website, or when you report a problem with our website.
-The categories of personal data processed may include:
-Email address
-Telephone number
-Device information
-Cookies and Web Beacons
-Respon.ai uses cookies on our website and web beacons in some emails. Cookies are small text files and web beacons are small graphic images. They are downloaded to your device when you visit a website or receive certain emails, unless you have set your browser to reject them.
-We use cookies to remember your preferences and improve your overall experience of our site. We use web beacons to track the actions of individuals (such as email recipients) and measure the success and response rates of our marketing campaigns.
-Below is a list of the cookies we use and the purpose of use:
-Type of Cookie
-Purpose
-Session Cookies
-These enable you to carry out some essential functions on our sites, such as maintaining log-in details for the session or a transaction. They also help by minimising the need to transfer information across the internet. They are not stored on your computer and expire when you terminate your browser session or logout of certain areas.
-Analytics
-We like to keep track of what pages and links are popular and which ones don’t get used so much to help us keep our site relevant and up to date. It’s also very useful to be able to identify trends of how people navigate our site and help us provide a more friendly solution.
-Third-party cookies
-Analytics tracking (and most web tracking software) use cookies in order to provide meaningful reports about site visitors. However, analytics cookies do not collect personal data about website visitors.
-To learn more about cookies, web beacons and what you can do to opt out of receiving them, please visit
-https://www.allaboutcookies.org/
-Purposes and bases for processing your personal data
-We may use your data for the following purposes and on the following lawful bases:
-Purposes
-Lawful Bases for Processing
-Responding to correspondence from you
-It is in our legitimate interest to respond to enquiries made through our website, by telephone, email, through our social channels or any other means
-Processing data to facilitate client service requirements
-We process personal data under written instruction, bound by the contract between us and our client
-Business management, forecasting and statistical purposes
-It is our legitimate interest to identify areas for managing current business relationships, develop our services and for managing our business
-Training our workflow system Artificial Intelligence model
-We use your personal data to train our models with your consent
-Improving our website and the overall website visitor and user experience
-It is our legitimate interest to allow analytics and search engine providers to help improve and optimise our website
-Improving our website and the overall website visitor and user experiencea
-We use cookies on our website with your consent
-Prevention and detection of crime including money laundering, fraud or other crimes
-We have a legal obligation to report any such activity to the relevant authorities and regulators
-Responding to suggestions and complaints in order to continually improve the services we provide
-It is in our legitimate interest to provide the best service to users of our website and to increase features in order to continually improve and expand the services we provide
-Analyse and track use of our website for reporting and analytical purposes
-It is in our legitimate interest to monitor our website usage in order to continually improve user experience
-Sharing your information
-If sharing your personal data becomes necessary for the purposes of providing our services to you, we will only share it where appropriate safeguards are in place, to ensure that your personal data is protected.
-We may, on occasion, engage the services of a third-party sub-processor. Any such third party will act under our written instructions and will adhere to strict data protection obligations.
-We also use a third party for hosting infrastructure, website performance and management, error monitoring, support and other functionality. The written contract in place between us and this third party provides for the maintenance of confidentiality, security, and integrity of the information we share with them.
-Our website includes links to social media platforms and messaging services (WhatsApp, Facebook,Tiktok, Instagram, LinkedIn, Line). Once you navigate away from our site via one of the links, the site may collect your IP address and may set a cookie on your device. When you use one of these links, you are sharing information to another website or service and this Notice will no longer apply. Please read the privacy notices provided by the particular service website you are directed to, before posting any personal information using these links.
-Your rights
-You possess the relevant rights concerning the processing of your personal data, including to:
-Request access to personal data about you (a “data subject access request”). This enables you to receive a copy of the personal data we hold about you and to check that we are processing it lawfully.
-Request rectification, correction, or updating of any personal data that we hold about you. This enables you to have any incomplete or inaccurate information we hold about you corrected.
-Request personal data provided by you to be transferred in a structured, commonly used and machine-readable format.
-Request erasure of personal data. This enables you to ask us to delete or remove personal data where there is no good reason for us continuing to process it. You also have the right to ask us to delete or remove personal data where you have exercised your right to object to processing (see below).
-Request the restriction of processing of your personal data. This enables you to ask us to suspend the processing of personal data about you (e.g., if you want us to establish its accuracy or the reason for processing it).
-Object to the processing of your personal data in certain circumstances. This right may apply where the processing of your personal data is based on the legitimate interests of Respon.ai.
-Some of these rights are not absolute and are subject to various conditions under applicable data protection and privacy legislation, laws, and regulations to which we are subject. If at any time you decide that you no longer wish to be contacted for marketing purposes, or if you would like to exercise any of your rights as set out above, you can contact us. You will not have to pay a fee to access your personal data (or to exercise any of the other rights). However, we may charge a reasonable fee if your request for access is clearly unfounded or excessive. Alternatively, we may refuse to comply with the request in such circumstances.
-Furthermore, if you are concerned about the manner in which we process your personal information, you are entitled to file a complaint with the competent data protection supervisory authority at any time.
-Data retention
-We will retain your personal data for as long as is necessary to provide you with our products and ongoing services and for a reasonable period thereafter, to enable us to meet our contractual and legal obligations and to deal with complaints and claims.
-At the end of the retention period, your personal data will be securely deleted in accordance with our Personal Data Retention Policy.
-Contact
-You can contact us in relation to data protection and this Notice.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>//s.yezgea02.com/static/1742454387135/logo160.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://respon.ai/home/terms</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business
 Respon.ai
@@ -1084,24 +670,92 @@
 Confidentiality Covenant. The Recipient hereby agrees that during the Term and at all times thereafter it will not: (i) disclose such Confidential Information of the Discloser to any person, except to its own personnel or affiliates on a “need to know” basis and who have entered into written confidentiality agreements no less protective of such Confidential Information than this Agreement, and to such other recipients as the Discloser may approve in writing; (ii) use Confidential Information of the Discloser except to exercise its license rights or perform its obligations under this Agreement; or (iii) alter or remove any proprietary legend from any Confidential Information of the Discloser. The ecipient will be deemed to have discharged its confidentiality obligations under this Section 1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>//s.yezgea02.com/static/1742454387135/logo160.png</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Respon.ai-Unified Social Media Inbox Management Tool</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://respon.ai/home/channel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Respon.ai-Unified Social Media Inbox Management Tool
+Respon.ai
+Home
+Integration
+Blog
+Company
+Start for Free
+Log In
+Sign Up
+English
+By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
+Cookie Policy
+ACCEPT
+WhatsApp
+Integrate multiple social media channels for cross-platform unified management
+START FOR FREE
+Respon.ai integrates with social media channels like WhatsApp, Facebook Messenger, Facebook comments, Instagram, and TikTok. Sales, operations, and customer service teams can collaboratively manage customers from various channels on the omnichannel chat platform. They can also share materials and synchronize strategies across platforms, significantly enhancing response times and operational efficiency.
+Currently integrates with the following social media channels
+Integrate WhatsApp into Respon.ai to boost customer service efficiency through multi-endpoint collaboration, automated strategies, and aggregated chat, enabling personalized interaction.
+Facebook Messenger
+Integrate multiple Pages' Messenger messages, ensuring no customer inquiry goes unanswered. Capture every opportunity, and turn your social media into a powerful growth engine!
+Facebook
+All-in-one social media engagement tool with automated, AI, and multilingual replies—24/7 rapid service to boost your global brand and streamline operations.
+Instagram
+Integrated with Instagram Graph API for seamless content publishing, customer engagement management, and analytics—empowering brands with full control and optimized interactions.
+TikTok
+Manage multiple TikTok accounts effortlessly and integrate DMs and comments. Engage instantly, boost fan loyalty, and scale your brand's influence like never before!
+Please wait
+These channels will be coming soon…
+Respon.ai：Redefine Your Private Ecosystem
+Boundless Engagement, Omnichannel Growth
+Make every connection a starting point for growth
+Channel Integration
+Messenger
+About Us
+Privacy Policy
+Terms of Service
+Contact Us
+service@respon.ai
+marketing@respon.ai
+© 2025 All Rights Reserved. FELICIS TECHNOLOGY LTD. Beckenham, London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>//s.yezgea02.com/static/1742454387135/logo160.png
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/channelBanner1.136571a2.webp?w=3840&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/whatsapp.252e02d0.svg?w=256&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/Messenger.e23aecf9.svg?w=256&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/Facebook.f2e5c91c.svg?w=256&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/ins.34a48ffb.svg?w=256&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/tk.ba34624e.svg?w=256&amp;q=75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://respon.ai/</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://respon.ai/home/index</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business
 Respon.ai
@@ -1150,7 +804,7 @@
 © 2025 All Rights Reserved. FELICIS TECHNOLOGY LTD. Beckenham, London, United Kingdom</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>//s.yezgea02.com/static/1742454387135/logo160.png
 //cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner1.076f67bb.webp?w=3840&amp;q=75
@@ -1162,6 +816,352 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://respon.ai/home/privacy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business
+Respon.ai
+Home
+Integration
+Blog
+Company
+Start for Free
+Log In
+Sign Up
+English
+By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
+Cookie Policy
+ACCEPT
+WhatsApp
+Privacy Policy
+Introduction
+Respon.ai is owned by FELICIS TECHNOLOGY LTD. We are committed to protecting and respecting your privacy.
+We have aligned our company data protection compliance programme to the core requirements of the General Data Protection Regulation, as this is considered by Respon.ai as the global ‘gold standard’ of data protection regulation.
+This Privacy Notice (“Notice”) explains how we treat personal information processed on our bespoke platform, Respon.ai, what we collect when you visit our website, contact us by email, phone or through one of our social channels, or through other communications. It also explains what information we collect automatically when you visit our website and the information we collect when you use our services.
+Please be aware that we have separate privacy notices for employees and job applicants, available from Respon.ai Human Resources. Please also be aware that our clients’ have their own privacy notices on their respective websites.
+Our work is predominantly as a Processor for our clients; however, Respon.ai is the Controller for our employee data and for the contact details of our clients. As such, in line with the requirements of Data Security Law, we solemnly commit to not disclosing any personal information.
+As an information-led business, we place great importance on ensuring the quality, confidentiality, integrity and availability of the data we hold and in meeting our data protection obligations when processing personal data. We are committed to protecting the security of your personal data. We use a variety of technical and organisational measures to help protect your personal data from unauthorised access, use or disclosure.
+We update this Notice from time to time in response to changes in applicable laws and regulations, to our processing practices and to the products and services we offer. Please review this Notice periodically to check for updates.
+What information do we process?
+Information provided by our clients
+The categories of personal data processed by us varies between clients, but may include:
+Name
+Job Title
+Business address
+Business email address
+Business telephone number(s)
+Business financial information
+Location data
+Personal data processed on our SleekFlow platform, determined by the Controller
+Information provided to us via our website
+We process all information you provide to us via our website (“our site”), by telephone, email or otherwise. This includes information you provide when you register for our services as a client, enquire about a product or service, use one of the social media functions linked to our website, or when you report a problem with our website.
+The categories of personal data processed may include:
+Email address
+Telephone number
+Device information
+Cookies and Web Beacons
+Respon.ai uses cookies on our website and web beacons in some emails. Cookies are small text files and web beacons are small graphic images. They are downloaded to your device when you visit a website or receive certain emails, unless you have set your browser to reject them.
+We use cookies to remember your preferences and improve your overall experience of our site. We use web beacons to track the actions of individuals (such as email recipients) and measure the success and response rates of our marketing campaigns.
+Below is a list of the cookies we use and the purpose of use:
+Type of Cookie
+Purpose
+Session Cookies
+These enable you to carry out some essential functions on our sites, such as maintaining log-in details for the session or a transaction. They also help by minimising the need to transfer information across the internet. They are not stored on your computer and expire when you terminate your browser session or logout of certain areas.
+Analytics
+We like to keep track of what pages and links are popular and which ones don’t get used so much to help us keep our site relevant and up to date. It’s also very useful to be able to identify trends of how people navigate our site and help us provide a more friendly solution.
+Third-party cookies
+Analytics tracking (and most web tracking software) use cookies in order to provide meaningful reports about site visitors. However, analytics cookies do not collect personal data about website visitors.
+To learn more about cookies, web beacons and what you can do to opt out of receiving them, please visit
+https://www.allaboutcookies.org/
+Purposes and bases for processing your personal data
+We may use your data for the following purposes and on the following lawful bases:
+Purposes
+Lawful Bases for Processing
+Responding to correspondence from you
+It is in our legitimate interest to respond to enquiries made through our website, by telephone, email, through our social channels or any other means
+Processing data to facilitate client service requirements
+We process personal data under written instruction, bound by the contract between us and our client
+Business management, forecasting and statistical purposes
+It is our legitimate interest to identify areas for managing current business relationships, develop our services and for managing our business
+Training our workflow system Artificial Intelligence model
+We use your personal data to train our models with your consent
+Improving our website and the overall website visitor and user experience
+It is our legitimate interest to allow analytics and search engine providers to help improve and optimise our website
+Improving our website and the overall website visitor and user experiencea
+We use cookies on our website with your consent
+Prevention and detection of crime including money laundering, fraud or other crimes
+We have a legal obligation to report any such activity to the relevant authorities and regulators
+Responding to suggestions and complaints in order to continually improve the services we provide
+It is in our legitimate interest to provide the best service to users of our website and to increase features in order to continually improve and expand the services we provide
+Analyse and track use of our website for reporting and analytical purposes
+It is in our legitimate interest to monitor our website usage in order to continually improve user experience
+Sharing your information
+If sharing your personal data becomes necessary for the purposes of providing our services to you, we will only share it where appropriate safeguards are in place, to ensure that your personal data is protected.
+We may, on occasion, engage the services of a third-party sub-processor. Any such third party will act under our written instructions and will adhere to strict data protection obligations.
+We also use a third party for hosting infrastructure, website performance and management, error monitoring, support and other functionality. The written contract in place between us and this third party provides for the maintenance of confidentiality, security, and integrity of the information we share with them.
+Our website includes links to social media platforms and messaging services (WhatsApp, Facebook,Tiktok, Instagram, LinkedIn, Line). Once you navigate away from our site via one of the links, the site may collect your IP address and may set a cookie on your device. When you use one of these links, you are sharing information to another website or service and this Notice will no longer apply. Please read the privacy notices provided by the particular service website you are directed to, before posting any personal information using these links.
+Your rights
+You possess the relevant rights concerning the processing of your personal data, including to:
+Request access to personal data about you (a “data subject access request”). This enables you to receive a copy of the personal data we hold about you and to check that we are processing it lawfully.
+Request rectification, correction, or updating of any personal data that we hold about you. This enables you to have any incomplete or inaccurate information we hold about you corrected.
+Request personal data provided by you to be transferred in a structured, commonly used and machine-readable format.
+Request erasure of personal data. This enables you to ask us to delete or remove personal data where there is no good reason for us continuing to process it. You also have the right to ask us to delete or remove personal data where you have exercised your right to object to processing (see below).
+Request the restriction of processing of your personal data. This enables you to ask us to suspend the processing of personal data about you (e.g., if you want us to establish its accuracy or the reason for processing it).
+Object to the processing of your personal data in certain circumstances. This right may apply where the processing of your personal data is based on the legitimate interests of Respon.ai.
+Some of these rights are not absolute and are subject to various conditions under applicable data protection and privacy legislation, laws, and regulations to which we are subject. If at any time you decide that you no longer wish to be contacted for marketing purposes, or if you would like to exercise any of your rights as set out above, you can contact us. You will not have to pay a fee to access your personal data (or to exercise any of the other rights). However, we may charge a reasonable fee if your request for access is clearly unfounded or excessive. Alternatively, we may refuse to comply with the request in such circumstances.
+Furthermore, if you are concerned about the manner in which we process your personal information, you are entitled to file a complaint with the competent data protection supervisory authority at any time.
+Data retention
+We will retain your personal data for as long as is necessary to provide you with our products and ongoing services and for a reasonable period thereafter, to enable us to meet our contractual and legal obligations and to deal with complaints and claims.
+At the end of the retention period, your personal data will be securely deleted in accordance with our Personal Data Retention Policy.
+Contact
+You can contact us in relation to data protection and this Notice.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>//s.yezgea02.com/static/1742454387135/logo160.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mission in Respon.ai-Omnichannel Messaging Tool for Social Media</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://respon.ai/home/company</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mission in Respon.ai-Omnichannel Messaging Tool for Social Media
+Respon.ai
+Home
+Integration
+Blog
+Company
+Start for Free
+Log In
+Sign Up
+English
+By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
+Cookie Policy
+ACCEPT
+WhatsApp
+Our Mission
+Build an Al-powered omnichannel private ecosystem operation management tool to make communication between businesses and customers more convenient, efficient, and intelligent.
+START FOR FREE
+Discover what Respon.ai can do for your Business
+Our team has more than 8 years of experience in R&amp;D of private domain operation tools and more than 3 years of practical experience in private domain operation. We are well versed in the gameplay and operation procedures of domestic private domain operations and have a mature private domain operation methodology.
+We are committed to simplifying workflows in marketing, sales support, and customer service to help companies easily maintain customer relationships, facilitate efficient customer communications, and significantly increase paid conversions.
+Respon.ai is an AI-enabled omnichannel messaging platform that supports integration with many social media platforms such as WhatsApp, Facebook, Instagram, TikTok, etc.
+As a professional social inbox tool provider, we hope to empower overseas businesses through our own advantages and help companies explore new ideas for localized private domain operations.
+Why Respon.ai ?
+Trusted by enterprises worldwide
+Spanning e-commerce, SaaS, and cross-border services
+24/7 Security Safeguard
+Advanced Encryption, Real-time Risk Early-Warning
+Agile adaptation to local demands
+Supports multi-time zones, multi-languages, and multi-platform customer service
+Respon.ai：Redefine Your Private Ecosystem
+Boundless Engagement, Omnichannel Growth
+Make every connection a starting point for growth
+Channel Integration
+Facebook
+Messenger
+TikTok
+Instagram
+About Us
+Privacy Policy
+Terms of Service
+Contact Us
+service@respon.ai
+marketing@respon.ai
+© 2025 All Rights Reserved. FELICIS TECHNOLOGY LTD. Beckenham, London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>//s.yezgea02.com/static/1742454387135/logo160.png
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/companyBanner1.04f579ef.webp?w=3840&amp;q=75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Unified Social Media Inbox Tool for Free Trial | Resopn.ai</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://respon.ai/home/pricing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unified Social Media Inbox Tool for Free Trial | Resopn.ai
+Respon.ai
+Home
+Integration
+Blog
+Company
+Start for Free
+Log In
+Sign Up
+English
+By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
+Cookie Policy
+ACCEPT
+WhatsApp
+Early Access Shape the Future Together
+Free to experience, built with your feedback!
+Your input will make Respon.ai better.
+Join the trial program &amp; become an early Co-creator.
+START FOR FREE
+Why a Free Trial Now?
+We offer you
+free
+access to
+5 social media accounts
+and
+5 cloud device accounts
+on Respon.ai.
+As a smart social media inbox tool, Respon.ai is currently in a phase of rapid growth. We believe in its potential, but we also know that user voices are the ultimate source of continuous improvement.
+We want to invite you to be among our first and most important trial users, giving you free access to our core features.
+Every experience you have, every suggestion you make, will directly help us identify issues, refine workflows, and ensure Respon.ai truly meets your real-world needs.
+What You Get By Joining the Trial?
+Completely Free Access
+Enjoy full access to the powerful features of Respon.ai at no cost during the trial period.
+Influence Product Direction
+Your valuable feedback will directly impact our product roadmap and feature prioritization. You have the chance to help shape the SaaS tool you've always wanted!
+Priority Access to Future Benefits
+As an early trial user, you might receive exclusive discounts or special benefits when we officially launch commercial plans.
+Direct Communication with the Team
+We will set up dedicated channels for you to easily communicate with our product and technical teams anytime.
+What Kind of Feedback Are We Looking For?
+We promise that all collected feedback will be used solely for
+product optimization. Your personal information will be strictly protected.
+Feature Usage Experience:
+What features did you find useful? What was difficult to use?
+Issues / Bugs Encountered:
+Did you run into any errors or unexpected behavior during use?
+Improvement Suggestions:
+What features would you add, or how would you improve existing ones, to better solve your pain points?
+Your Needs:
+What are the specific challenges in your work or business that (Your SaaS Tool Name) currently doesn't address?
+Start Your Respon.ai Journey
+Make every connection a starting point for growth
+Channel Integration
+Facebook
+Messenger
+TikTok
+Instagram
+About Us
+Privacy Policy
+Terms of Service
+Contact Us
+service@respon.ai
+marketing@respon.ai
+© 2025 All Rights Reserved. FELICIS TECHNOLOGY LTD. Beckenham, London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>//s.yezgea02.com/static/1742454387135/logo160.png
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/speakIcon.8801ff7f.svg?w=256&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/freeIcon.7ddd9b40.svg?w=256&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/recommendationsIcon.bcb20dc2.svg?w=256&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/feedbackImg.0df29226.webp?w=3840&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/bottomweb@2x.ffdcc63e.webp?w=3840&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/bottommobile@2x.42e9dd14.webp?w=3840&amp;q=75</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://respon.ai/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Respon.ai-AI Omnichannel Messaging/Chat Platform for Business
+Respon.ai
+Home
+Integration
+Blog
+Company
+Start for Free
+Log In
+Sign Up
+English
+By clicking 'Accept', you agree to this Respon.ai can use cookies to help personalize content and analyze website traffic.You can always opt out by following guidelines in our
+Cookie Policy
+ACCEPT
+WhatsApp
+AI-Powered
+Social Media Management Maximized Efficiency
+Use a unified intelligent social management platform to make marketing simple and efficient
+START FOR FREE
+Work smarter and save 50% of your time
+Integrate all your social media feeds
+It is amazing that all social media messages are centralized in one platform to build a unified customer profile for you.
+We support seamless connection between web pages and mobile apps, helping you interact with target customers anytime and anywhere.
+KNOW MORE CHANNELS
+AI customer service automation marketing
+Boost social media engagement, marketing, and sales with AI.
+Our social media management can understand intent, detects emotion, and analyze needs across multiple languages. Automate 80% of inquiries while ensuring smooth handover of key conversations—reducing workload while maintaining quality service.
+Intelligent Decision Making
+Set up intelligent decision-making and diversion processing, and automatically transfer risk conversations and key users to manual work, thereby reducing the pressure on manual customer service while ensuring service quality.
+Quickly integrate into the local market
+As an omnichannel messaging platform, Respon.ai supports cross-time zone, 20+ language real-time translation, helping you quickly adapt to the cultural differences of different markets. By establishing a standardized template library + localized script library, you have a greater chance of converting global public domain users into high-repurchase user assets.
+Team collaboration security support
+Each account is equipped with a separate 'ID card' to provide safe and stable technical support. Through task assignment and progress tracking in our social media inbox, your team can collaborate efficiently to avoid repeated contacts and missed orders. All customer communications are automatically archived, so no matter who contacts the same customer next time, there is no need to repeatedly ask 'What do you need?'
+Make every connection a starting point for growth
+Channel Integration
+Facebook
+Messenger
+TikTok
+Instagram
+About Us
+Privacy Policy
+Terms of Service
+Contact Us
+service@respon.ai
+marketing@respon.ai
+© 2025 All Rights Reserved. FELICIS TECHNOLOGY LTD. Beckenham, London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>//s.yezgea02.com/static/1742454387135/logo160.png
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner1.076f67bb.webp?w=3840&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner2.51307496.webp?w=1200&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner3.288f103a.webp?w=1200&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBannerTest4.e6c6f5ae.webp?w=1200&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner5.b835a526.webp?w=1200&amp;q=75
+//cdn.respon.ai/release/whats-up-cloud-homePage/_next/static/media/homeBanner6.2a0c2bab.svg?w=828&amp;q=75</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
